--- a/docs/Физическая модель.xlsx
+++ b/docs/Физическая модель.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Senchavichus\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Senchavichus\Desktop\rybalchenkoar-project\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0DC7B67-32B1-45F7-82F4-D05AA4311CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F1ABF4-3E53-442C-9A99-928C9B98426C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{4A98FCE6-4901-4E4D-83BB-E27B90E16CFF}"/>
+    <workbookView minimized="1" xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11835" xr2:uid="{4A98FCE6-4901-4E4D-83BB-E27B90E16CFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="108">
   <si>
     <t>Столбец</t>
   </si>
@@ -114,9 +114,6 @@
     <t>Computer(Компьютер)</t>
   </si>
   <si>
-    <t>status_id</t>
-  </si>
-  <si>
     <t>status</t>
   </si>
   <si>
@@ -252,39 +249,21 @@
     <t>PRIMARY KEY, NOT NULL</t>
   </si>
   <si>
-    <t>Уникальный идентификатор клиента</t>
-  </si>
-  <si>
-    <t>—</t>
-  </si>
-  <si>
-    <t>Для уведомлений и авторизации</t>
-  </si>
-  <si>
     <t>Может быть NULL, если клиент не оставил дату рождения</t>
   </si>
   <si>
-    <t>Уникальный идентификатор компьютера</t>
-  </si>
-  <si>
     <t>Например, «Стандарт», «Премиум», «Консоль», «PRO» и т.п.</t>
   </si>
   <si>
     <t>Например, «Зал 1», «VIP-комната» и т.д.</t>
   </si>
   <si>
-    <t>Уникальный идентификатор записи о состоянии</t>
-  </si>
-  <si>
     <t>FOREIGN KEY (computer_id) REFERENCES net_cafe.computer(computer_id), NOT NULL</t>
   </si>
   <si>
     <t>Какой компьютер имеет данное состояние</t>
   </si>
   <si>
-    <t>Описание «железа», ПО, версия консоли и т.п.</t>
-  </si>
-  <si>
     <t>«в работе», «на обслуживании», «не работает»</t>
   </si>
   <si>
@@ -297,30 +276,18 @@
     <t>Может быть NULL, если статус активен</t>
   </si>
   <si>
-    <t>Для связи или авторизации</t>
-  </si>
-  <si>
     <t>Например, «Менеджер», «Администратор», «Бариста», «Служба поддержки»</t>
   </si>
   <si>
-    <t>Уникальный идентификатор услуги</t>
-  </si>
-  <si>
     <t>«Чипсы», «энергетик», «VR-шлем» и т.д.</t>
   </si>
   <si>
     <t>NUMERIC(10,2)</t>
   </si>
   <si>
-    <t>Хранится с двумя знаками после запятой</t>
-  </si>
-  <si>
     <t>ID промежуточной связи сотрудник–услуга</t>
   </si>
   <si>
-    <t>Уникальный идентификатор записи</t>
-  </si>
-  <si>
     <t>FOREIGN KEY (staff_id) REFERENCES net_cafe.staff(staff_id), NOT NULL</t>
   </si>
   <si>
@@ -336,15 +303,9 @@
     <t>Staff_Service (связь работник услуга)</t>
   </si>
   <si>
-    <t>Уникальный идентификатор сессии</t>
-  </si>
-  <si>
     <t>FOREIGN KEY (client_id) REFERENCES net_cafe.client(client_id), NOT NULL</t>
   </si>
   <si>
-    <t>Какой клиент участвует в сессии</t>
-  </si>
-  <si>
     <t>FOREIGN KEY (computer_id) REFERENCES net_cafe.computer(computer_id)</t>
   </si>
   <si>
@@ -382,6 +343,12 @@
   </si>
   <si>
     <t>Какая услуга была оказана в рамках данной сессии</t>
+  </si>
+  <si>
+    <t>maintenance_id</t>
+  </si>
+  <si>
+    <t>Описание компонентов и ПО</t>
   </si>
 </sst>
 </file>
@@ -679,6 +646,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -686,33 +680,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1033,13 +1000,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAFC80FE-BA83-41BF-B52E-68EBB41D7987}">
   <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40" bestFit="1" customWidth="1"/>
@@ -1048,28 +1015,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="15" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1078,17 +1045,15 @@
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>75</v>
-      </c>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="5" t="s">
@@ -1097,15 +1062,13 @@
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>76</v>
-      </c>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="5" t="s">
@@ -1114,15 +1077,13 @@
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>76</v>
-      </c>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5" ht="25.5">
       <c r="A6" s="5" t="s">
@@ -1131,15 +1092,13 @@
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>77</v>
-      </c>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
@@ -1148,15 +1107,13 @@
       <c r="B7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="10" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>76</v>
-      </c>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5" ht="30.75" thickBot="1">
       <c r="A8" s="7" t="s">
@@ -1165,40 +1122,40 @@
       <c r="B8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="10" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="16"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="18"/>
     </row>
     <row r="11" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="15" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1207,33 +1164,31 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>79</v>
-      </c>
+      <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" ht="30">
       <c r="A13" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="26.25" thickBot="1">
@@ -1241,241 +1196,231 @@
         <v>27</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="12" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="16" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A16" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="12"/>
+      <c r="A16" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="21"/>
     </row>
     <row r="17" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="21" t="s">
+      <c r="E17" s="15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" ht="25.5">
       <c r="A18" s="3" t="s">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>82</v>
-      </c>
+      <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" ht="45">
       <c r="A19" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="25.5">
       <c r="A20" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="10" t="s">
         <v>63</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>64</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="30">
       <c r="A22" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>87</v>
+      <c r="C22" s="10" t="s">
+        <v>80</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="30.75" thickBot="1">
       <c r="A23" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>87</v>
+      <c r="C23" s="12" t="s">
+        <v>80</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>23</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="25" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A25" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="12"/>
+      <c r="A25" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="21"/>
     </row>
     <row r="26" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="D26" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E26" s="21" t="s">
+      <c r="E26" s="15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="6" t="s">
-        <v>76</v>
-      </c>
+      <c r="E28" s="6"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="6" t="s">
-        <v>76</v>
-      </c>
+      <c r="E29" s="6"/>
     </row>
     <row r="30" spans="1:5" ht="25.5">
       <c r="A30" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E30" s="6" t="s">
-        <v>90</v>
-      </c>
+      <c r="E30" s="6"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="5" t="s">
@@ -1484,428 +1429,414 @@
       <c r="B31" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="10" t="s">
         <v>19</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="6" t="s">
-        <v>76</v>
-      </c>
+      <c r="E31" s="6"/>
     </row>
     <row r="32" spans="1:5" ht="30.75" thickBot="1">
       <c r="A32" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C32" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="12" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="34" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A34" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="16"/>
+      <c r="A34" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="18"/>
     </row>
     <row r="35" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C35" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D35" s="20" t="s">
+      <c r="D35" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E35" s="21" t="s">
+      <c r="E35" s="15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C36" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="E36" s="4"/>
     </row>
     <row r="37" spans="1:5" ht="25.5">
       <c r="A37" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="26.25" thickBot="1">
       <c r="A38" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C38" s="18" t="s">
-        <v>94</v>
+      <c r="C38" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="9" t="s">
-        <v>95</v>
-      </c>
+      <c r="E38" s="9"/>
     </row>
     <row r="39" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="40" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A40" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="16"/>
+      <c r="A40" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="18"/>
     </row>
     <row r="41" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A41" s="19" t="s">
+      <c r="A41" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="20" t="s">
+      <c r="B41" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C41" s="20" t="s">
+      <c r="C41" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D41" s="20" t="s">
+      <c r="D41" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E41" s="21" t="s">
+      <c r="E41" s="15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="30">
       <c r="A42" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C42" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>97</v>
-      </c>
+      <c r="E42" s="4"/>
     </row>
     <row r="43" spans="1:5" ht="30">
       <c r="A43" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C43" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="30.75" thickBot="1">
       <c r="A44" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C44" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44" s="12" t="s">
         <v>6</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="46" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A46" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="B46" s="15"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="16"/>
+      <c r="A46" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="18"/>
     </row>
     <row r="47" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A47" s="19" t="s">
+      <c r="A47" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="20" t="s">
+      <c r="B47" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C47" s="20" t="s">
+      <c r="C47" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D47" s="20" t="s">
+      <c r="D47" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E47" s="21" t="s">
+      <c r="E47" s="15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C48" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D48" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>103</v>
-      </c>
+      <c r="E48" s="4"/>
     </row>
     <row r="49" spans="1:5" ht="30">
       <c r="A49" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C49" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>105</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="E49" s="6"/>
     </row>
     <row r="50" spans="1:5" ht="45">
       <c r="A50" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C50" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C50" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="30">
       <c r="A51" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C51" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C51" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="30">
       <c r="A52" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C52" s="13" t="s">
-        <v>87</v>
+      <c r="C52" s="10" t="s">
+        <v>80</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C53" s="13" t="s">
-        <v>87</v>
+      <c r="C53" s="10" t="s">
+        <v>80</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C54" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C54" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="30.75" thickBot="1">
       <c r="A55" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C55" s="18" t="s">
-        <v>94</v>
+        <v>57</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>23</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="57" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A57" s="10" t="s">
+      <c r="A57" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" s="20"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="21"/>
+    </row>
+    <row r="58" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A58" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B57" s="11"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="12"/>
-    </row>
-    <row r="58" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A58" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B58" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C58" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D58" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="25.5">
-      <c r="A59" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="B59" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C59" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D59" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>97</v>
-      </c>
+      <c r="E59" s="4"/>
     </row>
     <row r="60" spans="1:5" ht="30">
       <c r="A60" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C60" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C60" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="30.75" thickBot="1">
       <c r="A61" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C61" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C61" s="12" t="s">
         <v>6</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
